--- a/мо (методы оптимизации)/2)Симплекс метод Данцига.xlsx
+++ b/мо (методы оптимизации)/2)Симплекс метод Данцига.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\221b\Desktop\вис33\homework\мо (методы оптимизации)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\вис33\homework-1\мо (методы оптимизации)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B47522-66F6-43DA-84A0-745B05DDEDFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F48FB9D-2954-4BA5-887B-6D574E8E2F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -375,23 +376,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="20.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -434,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -448,7 +449,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -465,4 +466,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2CE13C-585F-4E2E-BAA2-DD328A1AC4AA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>